--- a/Code/Results/Cases/Case_6_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_56/res_line/pl_mw.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.168845432433613</v>
+        <v>2.16884543243367</v>
       </c>
       <c r="C3">
-        <v>0.5335751380381168</v>
+        <v>0.5335751380378895</v>
       </c>
       <c r="D3">
-        <v>0.2985337791333791</v>
+        <v>0.2985337791332512</v>
       </c>
       <c r="E3">
-        <v>0.1726003798664522</v>
+        <v>0.1726003798664593</v>
       </c>
       <c r="F3">
-        <v>5.702044604827478</v>
+        <v>5.702044604827421</v>
       </c>
       <c r="G3">
-        <v>0.0007828867811164636</v>
+        <v>0.0007828867812165</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8412351801453113</v>
+        <v>0.8412351801452971</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.94834203394484</v>
+        <v>1.948342033945011</v>
       </c>
       <c r="C4">
-        <v>0.4784887090333712</v>
+        <v>0.478488709033428</v>
       </c>
       <c r="D4">
-        <v>0.275174765403122</v>
+        <v>0.2751747654026531</v>
       </c>
       <c r="E4">
-        <v>0.1564729889442518</v>
+        <v>0.1564729889442589</v>
       </c>
       <c r="F4">
-        <v>5.210952328126552</v>
+        <v>5.210952328126666</v>
       </c>
       <c r="G4">
-        <v>0.000790278999484818</v>
+        <v>0.0007902789994714953</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.859845549303856</v>
+        <v>1.859845549303941</v>
       </c>
       <c r="C5">
         <v>0.4563909304170011</v>
       </c>
       <c r="D5">
-        <v>0.2657965331326295</v>
+        <v>0.2657965331326437</v>
       </c>
       <c r="E5">
-        <v>0.150004319768037</v>
+        <v>0.1500043197680796</v>
       </c>
       <c r="F5">
-        <v>5.013780832354257</v>
+        <v>5.013780832354286</v>
       </c>
       <c r="G5">
-        <v>0.000793325822972999</v>
+        <v>0.0007933258229425219</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7223784949684884</v>
+        <v>0.7223784949685026</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.845226190746445</v>
+        <v>1.845226190746274</v>
       </c>
       <c r="C6">
-        <v>0.4527408417799847</v>
+        <v>0.4527408417802121</v>
       </c>
       <c r="D6">
-        <v>0.2642470263713648</v>
+        <v>0.2642470263711516</v>
       </c>
       <c r="E6">
-        <v>0.1489359404280677</v>
+        <v>0.1489359404279824</v>
       </c>
       <c r="F6">
-        <v>4.981204376549385</v>
+        <v>4.9812043765493</v>
       </c>
       <c r="G6">
-        <v>0.0007938339419609763</v>
+        <v>0.0007938339419705891</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7167568199134422</v>
+        <v>0.7167568199134564</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>1.947143340097</v>
       </c>
       <c r="C7">
-        <v>0.4781893604306049</v>
+        <v>0.4781893604310312</v>
       </c>
       <c r="D7">
-        <v>0.2750477521258432</v>
+        <v>0.2750477521255874</v>
       </c>
       <c r="E7">
-        <v>0.1563853547724676</v>
+        <v>0.1563853547724534</v>
       </c>
       <c r="F7">
         <v>5.208281917755215</v>
       </c>
       <c r="G7">
-        <v>0.0007903199450735484</v>
+        <v>0.000790319945185872</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7559508208962953</v>
+        <v>0.7559508208963024</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.409489294870241</v>
+        <v>2.409489294870355</v>
       </c>
       <c r="C8">
-        <v>0.5937548589471646</v>
+        <v>0.5937548589475057</v>
       </c>
       <c r="D8">
-        <v>0.3240192321877515</v>
+        <v>0.3240192321879363</v>
       </c>
       <c r="E8">
-        <v>0.1902151305924562</v>
+        <v>0.190215130592442</v>
       </c>
       <c r="F8">
-        <v>6.23767960828286</v>
+        <v>6.237679608282946</v>
       </c>
       <c r="G8">
-        <v>0.0007751043265943232</v>
+        <v>0.0007751043265861284</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9338436831146453</v>
+        <v>0.933843683114624</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.380266565756358</v>
+        <v>3.380266565756415</v>
       </c>
       <c r="C9">
-        <v>0.8375429585758241</v>
+        <v>0.8375429585761367</v>
       </c>
       <c r="D9">
         <v>0.4268598006141247</v>
       </c>
       <c r="E9">
-        <v>0.2613942530475981</v>
+        <v>0.2613942530476621</v>
       </c>
       <c r="F9">
         <v>8.394977656341382</v>
       </c>
       <c r="G9">
-        <v>0.0007459906493089824</v>
+        <v>0.0007459906490922669</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.307805741277662</v>
+        <v>1.307805741277718</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.154994618857586</v>
+        <v>4.1549946188577</v>
       </c>
       <c r="C10">
-        <v>1.033646101156023</v>
+        <v>1.033646101156506</v>
       </c>
       <c r="D10">
-        <v>0.5090463488270984</v>
+        <v>0.5090463488268995</v>
       </c>
       <c r="E10">
-        <v>0.3182964006992464</v>
+        <v>0.3182964006992606</v>
       </c>
       <c r="F10">
-        <v>10.11207971436602</v>
+        <v>10.1120797143659</v>
       </c>
       <c r="G10">
-        <v>0.0007246632532902441</v>
+        <v>0.0007246632530601905</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.606640551656895</v>
+        <v>1.606640551656824</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.527264370381204</v>
+        <v>4.52726437038109</v>
       </c>
       <c r="C11">
-        <v>1.128454987086457</v>
+        <v>1.128454987087707</v>
       </c>
       <c r="D11">
-        <v>0.5485854604646647</v>
+        <v>0.548585460464551</v>
       </c>
       <c r="E11">
-        <v>0.3456587785118401</v>
+        <v>0.3456587785118543</v>
       </c>
       <c r="F11">
-        <v>10.93554283643482</v>
+        <v>10.93554283643516</v>
       </c>
       <c r="G11">
-        <v>0.0007148660305355288</v>
+        <v>0.0007148660306364185</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.75035181080068</v>
+        <v>1.750351810800666</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.671781439313349</v>
+        <v>4.671781439313008</v>
       </c>
       <c r="C12">
-        <v>1.165368778323852</v>
+        <v>1.165368778323455</v>
       </c>
       <c r="D12">
-        <v>0.5639432705848719</v>
+        <v>0.5639432705849572</v>
       </c>
       <c r="E12">
-        <v>0.3562835037347369</v>
+        <v>0.3562835037348009</v>
       </c>
       <c r="F12">
-        <v>11.25490673824993</v>
+        <v>11.2549067382497</v>
       </c>
       <c r="G12">
-        <v>0.0007111308242426468</v>
+        <v>0.0007111308242628522</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.806160894725906</v>
+        <v>1.806160894725934</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.640486564566345</v>
+        <v>4.640486564566402</v>
       </c>
       <c r="C13">
-        <v>1.157369906719424</v>
+        <v>1.157369906720305</v>
       </c>
       <c r="D13">
-        <v>0.5606171642227764</v>
+        <v>0.5606171642223217</v>
       </c>
       <c r="E13">
-        <v>0.3539826385553582</v>
+        <v>0.3539826385553297</v>
       </c>
       <c r="F13">
-        <v>11.18576421120099</v>
+        <v>11.18576421120105</v>
       </c>
       <c r="G13">
-        <v>0.0007119366010955927</v>
+        <v>0.0007119366011066819</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.794074631982397</v>
+        <v>1.79407463198244</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.539078245735709</v>
+        <v>4.539078245735425</v>
       </c>
       <c r="C14">
         <v>1.13147026944057</v>
       </c>
       <c r="D14">
-        <v>0.5498407405499108</v>
+        <v>0.5498407405496266</v>
       </c>
       <c r="E14">
         <v>0.3465272738395626</v>
       </c>
       <c r="F14">
-        <v>10.96165659151171</v>
+        <v>10.96165659151177</v>
       </c>
       <c r="G14">
-        <v>0.0007145593137037549</v>
+        <v>0.0007145593135982065</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.477447917777454</v>
+        <v>4.477447917777397</v>
       </c>
       <c r="C15">
-        <v>1.115744721419105</v>
+        <v>1.115744721419958</v>
       </c>
       <c r="D15">
-        <v>0.5432925776306092</v>
+        <v>0.5432925776307798</v>
       </c>
       <c r="E15">
-        <v>0.3419966266761989</v>
+        <v>0.3419966266762771</v>
       </c>
       <c r="F15">
-        <v>10.82541417443434</v>
+        <v>10.82541417443457</v>
       </c>
       <c r="G15">
-        <v>0.0007161621314745032</v>
+        <v>0.0007161621312389974</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.13112093540775</v>
+        <v>4.131120935407694</v>
       </c>
       <c r="C16">
-        <v>1.027579372223443</v>
+        <v>1.027579372223386</v>
       </c>
       <c r="D16">
-        <v>0.5065117770215011</v>
+        <v>0.5065117770212453</v>
       </c>
       <c r="E16">
-        <v>0.3165420166419963</v>
+        <v>0.3165420166419537</v>
       </c>
       <c r="F16">
-        <v>10.05923310908906</v>
+        <v>10.05923310908909</v>
       </c>
       <c r="G16">
-        <v>0.0007253006810932198</v>
+        <v>0.0007253006808728708</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.597426857453641</v>
+        <v>1.597426857453598</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>3.92418867714639</v>
       </c>
       <c r="C17">
-        <v>0.9750595323766333</v>
+        <v>0.9750595323771449</v>
       </c>
       <c r="D17">
-        <v>0.4845479681477229</v>
+        <v>0.484547968147325</v>
       </c>
       <c r="E17">
-        <v>0.3013375162920156</v>
+        <v>0.301337516291909</v>
       </c>
       <c r="F17">
-        <v>9.600985149373486</v>
+        <v>9.600985149373372</v>
       </c>
       <c r="G17">
-        <v>0.0007308750599778098</v>
+        <v>0.0007308750601005796</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.517577344285101</v>
+        <v>1.517577344285058</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.806984889625085</v>
+        <v>3.806984889625255</v>
       </c>
       <c r="C18">
-        <v>0.9453638697306701</v>
+        <v>0.9453638697306133</v>
       </c>
       <c r="D18">
-        <v>0.4721121387744347</v>
+        <v>0.4721121387746336</v>
       </c>
       <c r="E18">
-        <v>0.292727728773194</v>
+        <v>0.2927277287732295</v>
       </c>
       <c r="F18">
-        <v>9.341295926329195</v>
+        <v>9.341295926329309</v>
       </c>
       <c r="G18">
-        <v>0.0007340731452554284</v>
+        <v>0.0007340731451369915</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.47236198305248</v>
+        <v>1.472361983052508</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.767595309508124</v>
+        <v>3.767595309508238</v>
       </c>
       <c r="C19">
-        <v>0.9353918964001195</v>
+        <v>0.9353918964014269</v>
       </c>
       <c r="D19">
-        <v>0.4679334010690184</v>
+        <v>0.46793340106899</v>
       </c>
       <c r="E19">
-        <v>0.2898344955191519</v>
+        <v>0.2898344955191448</v>
       </c>
       <c r="F19">
-        <v>9.253997408724928</v>
+        <v>9.253997408724985</v>
       </c>
       <c r="G19">
-        <v>0.0007351548726892208</v>
+        <v>0.0007351548726827498</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.457167812168677</v>
+        <v>1.457167812168663</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.946024265764436</v>
+        <v>3.946024265764265</v>
       </c>
       <c r="C20">
         <v>0.9805959885715367</v>
@@ -1276,13 +1276,13 @@
         <v>0.4868651506347703</v>
       </c>
       <c r="E20">
-        <v>0.3029417118067599</v>
+        <v>0.3029417118067528</v>
       </c>
       <c r="F20">
-        <v>9.649355080960646</v>
+        <v>9.649355080960618</v>
       </c>
       <c r="G20">
-        <v>0.0007302825766595689</v>
+        <v>0.0007302825767651263</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.526002002088461</v>
+        <v>1.526002002088475</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.568761738562216</v>
+        <v>4.568761738561989</v>
       </c>
       <c r="C21">
-        <v>1.139048268621764</v>
+        <v>1.139048268621792</v>
       </c>
       <c r="D21">
-        <v>0.5529948925911015</v>
+        <v>0.5529948925911867</v>
       </c>
       <c r="E21">
-        <v>0.3487094895308047</v>
+        <v>0.3487094895307052</v>
       </c>
       <c r="F21">
-        <v>11.02726472371705</v>
+        <v>11.02726472371694</v>
       </c>
       <c r="G21">
-        <v>0.0007137897484148269</v>
+        <v>0.0007137897484277041</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.766376003804254</v>
+        <v>1.766376003804226</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.996878314583455</v>
+        <v>4.996878314584023</v>
       </c>
       <c r="C22">
-        <v>1.248638278172251</v>
+        <v>1.248638278172223</v>
       </c>
       <c r="D22">
-        <v>0.5985086019925348</v>
+        <v>0.5985086019927337</v>
       </c>
       <c r="E22">
-        <v>0.3801881807941285</v>
+        <v>0.3801881807941143</v>
       </c>
       <c r="F22">
-        <v>11.97266575436822</v>
+        <v>11.97266575436828</v>
       </c>
       <c r="G22">
-        <v>0.000702856368332683</v>
+        <v>0.0007028563685634605</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.931744979571789</v>
+        <v>1.931744979571803</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.766177654993726</v>
+        <v>4.76617765499401</v>
       </c>
       <c r="C23">
-        <v>1.18951397561122</v>
+        <v>1.189513975611646</v>
       </c>
       <c r="D23">
-        <v>0.573977312801361</v>
+        <v>0.5739773128015315</v>
       </c>
       <c r="E23">
-        <v>0.3632240307027885</v>
+        <v>0.3632240307028525</v>
       </c>
       <c r="F23">
-        <v>11.46341346294378</v>
+        <v>11.46341346294389</v>
       </c>
       <c r="G23">
-        <v>0.0007087103790237141</v>
+        <v>0.0007087103791203731</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.842620327128785</v>
+        <v>1.842620327128756</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.936146950790999</v>
+        <v>3.936146950790885</v>
       </c>
       <c r="C24">
-        <v>0.9780914182996696</v>
+        <v>0.9780914182992433</v>
       </c>
       <c r="D24">
-        <v>0.4858169615674228</v>
+        <v>0.4858169615676218</v>
       </c>
       <c r="E24">
-        <v>0.3022160491478516</v>
+        <v>0.3022160491478587</v>
       </c>
       <c r="F24">
-        <v>9.627475416767908</v>
+        <v>9.62747541676805</v>
       </c>
       <c r="G24">
-        <v>0.0007305504584520364</v>
+        <v>0.000730550458435688</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.52219108102247</v>
+        <v>1.522191081022441</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.108713867423717</v>
+        <v>3.108713867423546</v>
       </c>
       <c r="C25">
-        <v>0.7691548627466602</v>
+        <v>0.7691548627466887</v>
       </c>
       <c r="D25">
-        <v>0.3980803911289996</v>
+        <v>0.3980803911288149</v>
       </c>
       <c r="E25">
-        <v>0.241467121565023</v>
+        <v>0.2414671215649804</v>
       </c>
       <c r="F25">
-        <v>7.792117041762651</v>
+        <v>7.792117041762566</v>
       </c>
       <c r="G25">
-        <v>0.0007538242739919406</v>
+        <v>0.000753824273886039</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.203140837479111</v>
+        <v>1.203140837479083</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.538403991009886</v>
+        <v>2.401775388941246</v>
       </c>
       <c r="C2">
-        <v>0.6260273653147976</v>
+        <v>0.8438710603998061</v>
       </c>
       <c r="D2">
-        <v>0.3376712133712374</v>
+        <v>0.02571654874118678</v>
       </c>
       <c r="E2">
-        <v>0.1996570369886328</v>
+        <v>0.1843027152688066</v>
       </c>
       <c r="F2">
-        <v>6.524487262274221</v>
+        <v>0.7893240587351613</v>
       </c>
       <c r="G2">
-        <v>0.0007710425356188301</v>
+        <v>0.7078978459089171</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.006361214150500061</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4504899090863717</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3362004189550092</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9834703800679137</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.9966537024135675</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.16884543243367</v>
+        <v>2.09043944769752</v>
       </c>
       <c r="C3">
-        <v>0.5335751380378895</v>
+        <v>0.7373042974365092</v>
       </c>
       <c r="D3">
-        <v>0.2985337791332512</v>
+        <v>0.02431677864611004</v>
       </c>
       <c r="E3">
-        <v>0.1726003798664593</v>
+        <v>0.1608324983414775</v>
       </c>
       <c r="F3">
-        <v>5.702044604827421</v>
+        <v>0.7157225519285646</v>
       </c>
       <c r="G3">
-        <v>0.0007828867812165</v>
+        <v>0.6398397128141085</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.003611100164470304</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4257001110039766</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3275069413543399</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8412351801452971</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.8628031608433773</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.948342033945011</v>
+        <v>1.899463142080293</v>
       </c>
       <c r="C4">
-        <v>0.478488709033428</v>
+        <v>0.672558398351498</v>
       </c>
       <c r="D4">
-        <v>0.2751747654026531</v>
+        <v>0.02347165525832295</v>
       </c>
       <c r="E4">
-        <v>0.1564729889442589</v>
+        <v>0.1468881304437417</v>
       </c>
       <c r="F4">
-        <v>5.210952328126666</v>
+        <v>0.6716473539511512</v>
       </c>
       <c r="G4">
-        <v>0.0007902789994714953</v>
+        <v>0.5991215739138767</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002328410895411803</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4111270157867182</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3226683016558312</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7564118428884967</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7813464875463154</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.859845549303941</v>
+        <v>1.821528981485613</v>
       </c>
       <c r="C5">
-        <v>0.4563909304170011</v>
+        <v>0.6473034438907916</v>
       </c>
       <c r="D5">
-        <v>0.2657965331326437</v>
+        <v>0.02318683272813971</v>
       </c>
       <c r="E5">
-        <v>0.1500043197680796</v>
+        <v>0.1412547233602872</v>
       </c>
       <c r="F5">
-        <v>5.013780832354286</v>
+        <v>0.6527115916183419</v>
       </c>
       <c r="G5">
-        <v>0.0007933258229425219</v>
+        <v>0.5814065692430574</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001956295408549913</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4046387352731529</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3199843364746755</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7223784949685026</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7484682004901231</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.845226190746274</v>
+        <v>1.808432782170087</v>
       </c>
       <c r="C6">
-        <v>0.4527408417802121</v>
+        <v>0.6443196928458974</v>
       </c>
       <c r="D6">
-        <v>0.2642470263711516</v>
+        <v>0.02320890708528367</v>
       </c>
       <c r="E6">
-        <v>0.1489359404279824</v>
+        <v>0.1402572960660926</v>
       </c>
       <c r="F6">
-        <v>4.9812043765493</v>
+        <v>0.6480815967109805</v>
       </c>
       <c r="G6">
-        <v>0.0007938339419705891</v>
+        <v>0.5768144101671453</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001976646736707721</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4027153971287873</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3185356432190645</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7167568199134564</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.7432138381924318</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.947143340097</v>
+        <v>1.897984136270964</v>
       </c>
       <c r="C7">
-        <v>0.4781893604310312</v>
+        <v>0.6755075825783479</v>
       </c>
       <c r="D7">
-        <v>0.2750477521255874</v>
+        <v>0.02365753936706483</v>
       </c>
       <c r="E7">
-        <v>0.1563853547724534</v>
+        <v>0.1466261072536739</v>
       </c>
       <c r="F7">
-        <v>5.208281917755215</v>
+        <v>0.6672860908597542</v>
       </c>
       <c r="G7">
-        <v>0.000790319945185872</v>
+        <v>0.5943267837927522</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002515503960776933</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4087024520306244</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3198709631656129</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7559508208963024</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.7814391935600611</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.409489294870355</v>
+        <v>2.293789593135898</v>
       </c>
       <c r="C8">
-        <v>0.5937548589475057</v>
+        <v>0.8113709792337147</v>
       </c>
       <c r="D8">
-        <v>0.3240192321879363</v>
+        <v>0.02548692647920703</v>
       </c>
       <c r="E8">
-        <v>0.190215130592442</v>
+        <v>0.1758596750433767</v>
       </c>
       <c r="F8">
-        <v>6.237679608282946</v>
+        <v>0.758239689378243</v>
       </c>
       <c r="G8">
-        <v>0.0007751043265861284</v>
+        <v>0.6781338830570007</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.005541812178395666</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4387028184201256</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3294392301450983</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.933843683114624</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9510448163438312</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.380266565756415</v>
+        <v>3.073691406633884</v>
       </c>
       <c r="C9">
-        <v>0.8375429585761367</v>
+        <v>1.078398807098665</v>
       </c>
       <c r="D9">
-        <v>0.4268598006141247</v>
+        <v>0.02885179242878166</v>
       </c>
       <c r="E9">
-        <v>0.2613942530476621</v>
+        <v>0.237843402386666</v>
       </c>
       <c r="F9">
-        <v>8.394977656341382</v>
+        <v>0.9542292246256494</v>
       </c>
       <c r="G9">
-        <v>0.0007459906490922669</v>
+        <v>0.8605978721684693</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0148263833195017</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5075106774809512</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3576066380373675</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.307805741277718</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.289811021212358</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.1549946188577</v>
+        <v>3.650525581478121</v>
       </c>
       <c r="C10">
-        <v>1.033646101156506</v>
+        <v>1.281990706381748</v>
       </c>
       <c r="D10">
-        <v>0.5090463488268995</v>
+        <v>0.03152061884280855</v>
       </c>
       <c r="E10">
-        <v>0.3182964006992606</v>
+        <v>0.2868787780747084</v>
       </c>
       <c r="F10">
-        <v>10.1120797143659</v>
+        <v>1.104491098135469</v>
       </c>
       <c r="G10">
-        <v>0.0007246632530601905</v>
+        <v>1.000566841940824</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02453143589326867</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.561408313578184</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3804160062519557</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.606640551656824</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.545388610030088</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.52726437038109</v>
+        <v>3.913605868278466</v>
       </c>
       <c r="C11">
-        <v>1.128454987087707</v>
+        <v>1.381907638956477</v>
       </c>
       <c r="D11">
-        <v>0.548585460464551</v>
+        <v>0.03310067129898187</v>
       </c>
       <c r="E11">
-        <v>0.3456587785118543</v>
+        <v>0.3098968810745362</v>
       </c>
       <c r="F11">
-        <v>10.93554283643516</v>
+        <v>1.168336552704019</v>
       </c>
       <c r="G11">
-        <v>0.0007148660306364185</v>
+        <v>1.058972299163756</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02995525329017124</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5833049371005359</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3872420536791097</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.750351810800666</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.664439412499647</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.671781439313008</v>
+        <v>4.013898560423627</v>
       </c>
       <c r="C12">
-        <v>1.165368778323455</v>
+        <v>1.417041628326331</v>
       </c>
       <c r="D12">
-        <v>0.5639432705849572</v>
+        <v>0.03352425140538884</v>
       </c>
       <c r="E12">
-        <v>0.3562835037348009</v>
+        <v>0.3189440682279638</v>
       </c>
       <c r="F12">
-        <v>11.2549067382497</v>
+        <v>1.196519023323859</v>
       </c>
       <c r="G12">
-        <v>0.0007111308242628522</v>
+        <v>1.085491826489942</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.03199348415650594</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.593835487428521</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3923692114803146</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.806160894725934</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.70937630082841</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.640486564566402</v>
+        <v>3.992369853288494</v>
       </c>
       <c r="C13">
-        <v>1.157369906720305</v>
+        <v>1.408859300798781</v>
       </c>
       <c r="D13">
-        <v>0.5606171642223217</v>
+        <v>0.03339642937638843</v>
       </c>
       <c r="E13">
-        <v>0.3539826385553297</v>
+        <v>0.3170204407044466</v>
       </c>
       <c r="F13">
-        <v>11.18576421120105</v>
+        <v>1.19116170732147</v>
       </c>
       <c r="G13">
-        <v>0.0007119366011066819</v>
+        <v>1.080572265230387</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.03151901905884014</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5919689754983892</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3917376229690817</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.79407463198244</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.699589498198421</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.539078245735425</v>
+        <v>3.921886853120327</v>
       </c>
       <c r="C14">
-        <v>1.13147026944057</v>
+        <v>1.384536514417505</v>
       </c>
       <c r="D14">
-        <v>0.5498407405496266</v>
+        <v>0.03311998414410056</v>
       </c>
       <c r="E14">
-        <v>0.3465272738395626</v>
+        <v>0.3106515793410765</v>
       </c>
       <c r="F14">
-        <v>10.96165659151177</v>
+        <v>1.170957103718251</v>
       </c>
       <c r="G14">
-        <v>0.0007145593135982065</v>
+        <v>1.061489815709862</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.03010736460292751</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5843415251221131</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3878643656870793</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.754913642802393</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.668089822044521</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.477447917777397</v>
+        <v>3.878586109134062</v>
       </c>
       <c r="C15">
-        <v>1.115744721419958</v>
+        <v>1.370860835143503</v>
       </c>
       <c r="D15">
-        <v>0.5432925776307798</v>
+        <v>0.03302281626929471</v>
       </c>
       <c r="E15">
-        <v>0.3419966266762771</v>
+        <v>0.3067087379035272</v>
       </c>
       <c r="F15">
-        <v>10.82541417443457</v>
+        <v>1.157197402866757</v>
       </c>
       <c r="G15">
-        <v>0.0007161621312389974</v>
+        <v>1.048261275555433</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.02932261102020739</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5788885785059676</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3845694684764922</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.731116395041241</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.649023517840064</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.131120935407694</v>
+        <v>3.632001205651022</v>
       </c>
       <c r="C16">
-        <v>1.027579372223386</v>
+        <v>1.285445171282333</v>
       </c>
       <c r="D16">
-        <v>0.5065117770212453</v>
+        <v>0.03201540693373772</v>
       </c>
       <c r="E16">
-        <v>0.3165420166419537</v>
+        <v>0.2848549198020649</v>
       </c>
       <c r="F16">
-        <v>10.05923310908909</v>
+        <v>1.088279773499536</v>
       </c>
       <c r="G16">
-        <v>0.0007253006808728708</v>
+        <v>0.9833895665736918</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02468235791793738</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.553194819628601</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3720225247706708</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.597426857453598</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>1.539209036408053</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.92418867714639</v>
+        <v>3.481145969346983</v>
       </c>
       <c r="C17">
-        <v>0.9750595323771449</v>
+        <v>1.233449922478883</v>
       </c>
       <c r="D17">
-        <v>0.484547968147325</v>
+        <v>0.03140128012656263</v>
       </c>
       <c r="E17">
-        <v>0.301337516291909</v>
+        <v>0.2717263916715282</v>
       </c>
       <c r="F17">
-        <v>9.600985149373372</v>
+        <v>1.046687331081912</v>
       </c>
       <c r="G17">
-        <v>0.0007308750601005796</v>
+        <v>0.9442847548777991</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.02204647896714729</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5377925877328664</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3646167126577922</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.517577344285058</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>1.472356137734408</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.806984889625255</v>
+        <v>3.394922507331785</v>
       </c>
       <c r="C18">
-        <v>0.9453638697306133</v>
+        <v>1.200670822520692</v>
       </c>
       <c r="D18">
-        <v>0.4721121387746336</v>
+        <v>0.03086805242811863</v>
       </c>
       <c r="E18">
-        <v>0.2927277287732295</v>
+        <v>0.2644342084160556</v>
       </c>
       <c r="F18">
-        <v>9.341295926329309</v>
+        <v>1.026644603762335</v>
       </c>
       <c r="G18">
-        <v>0.0007340731451369915</v>
+        <v>0.9260697765548684</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.02041389655040948</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5311117306016371</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3628553782599937</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.472361983052508</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1.433605602096719</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.767595309508238</v>
+        <v>3.36543631766375</v>
       </c>
       <c r="C19">
-        <v>0.9353918964014269</v>
+        <v>1.19191638898792</v>
       </c>
       <c r="D19">
-        <v>0.46793340106899</v>
+        <v>0.03082750854463967</v>
       </c>
       <c r="E19">
-        <v>0.2898344955191448</v>
+        <v>0.2618545562141392</v>
       </c>
       <c r="F19">
-        <v>9.253997408724985</v>
+        <v>1.017086128195075</v>
       </c>
       <c r="G19">
-        <v>0.0007351548726827498</v>
+        <v>0.9168248625337867</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.02001596130381866</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5272861326513123</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3604255220328199</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.457167812168663</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.420878736741685</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.946024265764265</v>
+        <v>3.497222322744108</v>
       </c>
       <c r="C20">
-        <v>0.9805959885715367</v>
+        <v>1.238733785696809</v>
       </c>
       <c r="D20">
-        <v>0.4868651506347703</v>
+        <v>0.03145222825015992</v>
       </c>
       <c r="E20">
-        <v>0.3029417118067528</v>
+        <v>0.2731268000070912</v>
       </c>
       <c r="F20">
-        <v>9.649355080960618</v>
+        <v>1.051376170115077</v>
       </c>
       <c r="G20">
-        <v>0.0007302825767651263</v>
+        <v>0.9487396542602653</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02230435921914342</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5395802338823756</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3655824937723082</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.526002002088475</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.47941724562645</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.568761738561989</v>
+        <v>3.942114697549925</v>
       </c>
       <c r="C21">
-        <v>1.139048268621792</v>
+        <v>1.395054553530429</v>
       </c>
       <c r="D21">
-        <v>0.5529948925911867</v>
+        <v>0.03340566925277955</v>
       </c>
       <c r="E21">
-        <v>0.3487094895307052</v>
+        <v>0.3123340972741673</v>
       </c>
       <c r="F21">
-        <v>11.02726472371694</v>
+        <v>1.172790641488433</v>
       </c>
       <c r="G21">
-        <v>0.0007137897484277041</v>
+        <v>1.062548326118744</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.03069900670758141</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5842757996934722</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3863121566349648</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.766376003804226</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.67785916097823</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.996878314584023</v>
+        <v>4.235042446518435</v>
       </c>
       <c r="C22">
-        <v>1.248638278172223</v>
+        <v>1.494395958637483</v>
       </c>
       <c r="D22">
-        <v>0.5985086019927337</v>
+        <v>0.03443619409682697</v>
       </c>
       <c r="E22">
-        <v>0.3801881807941143</v>
+        <v>0.3391932731703022</v>
       </c>
       <c r="F22">
-        <v>11.97266575436828</v>
+        <v>1.259783707381331</v>
       </c>
       <c r="G22">
-        <v>0.0007028563685634605</v>
+        <v>1.145162421641999</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.03669537741010398</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6176823669347584</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4042984873322979</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.931744979571803</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.808760615583807</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.76617765499401</v>
+        <v>4.079105731043626</v>
       </c>
       <c r="C23">
-        <v>1.189513975611646</v>
+        <v>1.437151748999668</v>
       </c>
       <c r="D23">
-        <v>0.5739773128015315</v>
+        <v>0.03363844737712895</v>
       </c>
       <c r="E23">
-        <v>0.3632240307028525</v>
+        <v>0.3249796007220525</v>
       </c>
       <c r="F23">
-        <v>11.46341346294389</v>
+        <v>1.218050280172719</v>
       </c>
       <c r="G23">
-        <v>0.0007087103791203731</v>
+        <v>1.106301871998085</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.03322373140597357</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6025045233236597</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3978422507774582</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.842620327128756</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.738074192688572</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.936146950790885</v>
+        <v>3.490820971548658</v>
       </c>
       <c r="C24">
-        <v>0.9780914182992433</v>
+        <v>1.229974646837775</v>
       </c>
       <c r="D24">
-        <v>0.4858169615676218</v>
+        <v>0.03104619372225415</v>
       </c>
       <c r="E24">
-        <v>0.3022160491478587</v>
+        <v>0.2728403003458197</v>
       </c>
       <c r="F24">
-        <v>9.62747541676805</v>
+        <v>1.056983279774386</v>
       </c>
       <c r="G24">
-        <v>0.000730550458435688</v>
+        <v>0.9552943384210124</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02182934792528624</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5431256576557928</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3702353018426194</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.522191081022441</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.475224353559312</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.108713867423546</v>
+        <v>2.861350203380766</v>
       </c>
       <c r="C25">
-        <v>0.7691548627466887</v>
+        <v>1.011396382564897</v>
       </c>
       <c r="D25">
-        <v>0.3980803911288149</v>
+        <v>0.02828760939488006</v>
       </c>
       <c r="E25">
-        <v>0.2414671215649804</v>
+        <v>0.2201829615024309</v>
       </c>
       <c r="F25">
-        <v>7.792117041762566</v>
+        <v>0.8924192192486089</v>
       </c>
       <c r="G25">
-        <v>0.000753824273886039</v>
+        <v>0.8016541505861454</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01217181426122771</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4839479765186354</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3444622602699567</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.203140837479083</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>1.198171548659019</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.401775388941246</v>
+        <v>2.390175417272417</v>
       </c>
       <c r="C2">
-        <v>0.8438710603998061</v>
+        <v>0.9147136440739985</v>
       </c>
       <c r="D2">
-        <v>0.02571654874118678</v>
+        <v>0.03134719756332416</v>
       </c>
       <c r="E2">
-        <v>0.1843027152688066</v>
+        <v>0.1796241729999153</v>
       </c>
       <c r="F2">
-        <v>0.7893240587351613</v>
+        <v>0.6960992064439893</v>
       </c>
       <c r="G2">
-        <v>0.7078978459089171</v>
+        <v>0.5856983301204082</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.006361214150500061</v>
+        <v>0.00584459278364946</v>
       </c>
       <c r="J2">
-        <v>0.4504899090863717</v>
+        <v>0.4478436031461825</v>
       </c>
       <c r="K2">
-        <v>0.3362004189550092</v>
+        <v>0.2753991178917268</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.161032209827713</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06291560611373725</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9966537024135675</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1.008256069274985</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.09043944769752</v>
+        <v>2.08374948870204</v>
       </c>
       <c r="C3">
-        <v>0.7373042974365092</v>
+        <v>0.7928616435919764</v>
       </c>
       <c r="D3">
-        <v>0.02431677864611004</v>
+        <v>0.02865216902137391</v>
       </c>
       <c r="E3">
-        <v>0.1608324983414775</v>
+        <v>0.1570321639018104</v>
       </c>
       <c r="F3">
-        <v>0.7157225519285646</v>
+        <v>0.6388349892370755</v>
       </c>
       <c r="G3">
-        <v>0.6398397128141085</v>
+        <v>0.5349696060066975</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.003611100164470304</v>
+        <v>0.003568190682283756</v>
       </c>
       <c r="J3">
-        <v>0.4257001110039766</v>
+        <v>0.4289792162368258</v>
       </c>
       <c r="K3">
-        <v>0.3275069413543399</v>
+        <v>0.2751941273204253</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1660301235848465</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0578785267982358</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8628031608433773</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8728459642155286</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.899463142080293</v>
+        <v>1.89553657350254</v>
       </c>
       <c r="C4">
-        <v>0.672558398351498</v>
+        <v>0.7189178726341368</v>
       </c>
       <c r="D4">
-        <v>0.02347165525832295</v>
+        <v>0.0270267969341873</v>
       </c>
       <c r="E4">
-        <v>0.1468881304437417</v>
+        <v>0.1436259781236373</v>
       </c>
       <c r="F4">
-        <v>0.6716473539511512</v>
+        <v>0.6044094676093366</v>
       </c>
       <c r="G4">
-        <v>0.5991215739138767</v>
+        <v>0.5047494535389347</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.002328410895411803</v>
+        <v>0.0024754726188152</v>
       </c>
       <c r="J4">
-        <v>0.4111270157867182</v>
+        <v>0.4175453447074489</v>
       </c>
       <c r="K4">
-        <v>0.3226683016558312</v>
+        <v>0.2753749033776351</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1691120365917484</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05553832167704087</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7813464875463154</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7903467695621416</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.821528981485613</v>
+        <v>1.818683184444893</v>
       </c>
       <c r="C5">
-        <v>0.6473034438907916</v>
+        <v>0.689931860762556</v>
       </c>
       <c r="D5">
-        <v>0.02318683272813971</v>
+        <v>0.02643255598167826</v>
       </c>
       <c r="E5">
-        <v>0.1412547233602872</v>
+        <v>0.138217356018604</v>
       </c>
       <c r="F5">
-        <v>0.6527115916183419</v>
+        <v>0.589485532479415</v>
       </c>
       <c r="G5">
-        <v>0.5814065692430574</v>
+        <v>0.4914911152744139</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001956295408549913</v>
+        <v>0.002170623528505722</v>
       </c>
       <c r="J5">
-        <v>0.4046387352731529</v>
+        <v>0.4123043287516452</v>
       </c>
       <c r="K5">
-        <v>0.3199843364746755</v>
+        <v>0.2748552197265681</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1700521355933695</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0545857817458355</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7484682004901231</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7570133774014636</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.808432782170087</v>
+        <v>1.805775864854979</v>
       </c>
       <c r="C6">
-        <v>0.6443196928458974</v>
+        <v>0.68629431739555</v>
       </c>
       <c r="D6">
-        <v>0.02320890708528367</v>
+        <v>0.02640939212234628</v>
       </c>
       <c r="E6">
-        <v>0.1402572960660926</v>
+        <v>0.1372638880559442</v>
       </c>
       <c r="F6">
-        <v>0.6480815967109805</v>
+        <v>0.585723138591888</v>
       </c>
       <c r="G6">
-        <v>0.5768144101671453</v>
+        <v>0.4878970752093323</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001976646736707721</v>
+        <v>0.002218244033919348</v>
       </c>
       <c r="J6">
-        <v>0.4027153971287873</v>
+        <v>0.4106863204354028</v>
       </c>
       <c r="K6">
-        <v>0.3185356432190645</v>
+        <v>0.2739642106207221</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1698206612035307</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05421552506263083</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7432138381924318</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.751667249357908</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.897984136270964</v>
+        <v>1.894117800418343</v>
       </c>
       <c r="C7">
-        <v>0.6755075825783479</v>
+        <v>0.7207353949555397</v>
       </c>
       <c r="D7">
-        <v>0.02365753936706483</v>
+        <v>0.02735572505833872</v>
       </c>
       <c r="E7">
-        <v>0.1466261072536739</v>
+        <v>0.1434255307813928</v>
       </c>
       <c r="F7">
-        <v>0.6672860908597542</v>
+        <v>0.5985582793138491</v>
       </c>
       <c r="G7">
-        <v>0.5943267837927522</v>
+        <v>0.5036161451138241</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.002515503960776933</v>
+        <v>0.002703592898832596</v>
       </c>
       <c r="J7">
-        <v>0.4087024520306244</v>
+        <v>0.408757992095147</v>
       </c>
       <c r="K7">
-        <v>0.3198709631656129</v>
+        <v>0.2722250105770563</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1676491211098927</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05462540434840868</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7814391935600611</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7902236604592332</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.293789593135898</v>
+        <v>2.284019817461854</v>
       </c>
       <c r="C8">
-        <v>0.8113709792337147</v>
+        <v>0.873469634099763</v>
       </c>
       <c r="D8">
-        <v>0.02548692647920703</v>
+        <v>0.03114255030090973</v>
       </c>
       <c r="E8">
-        <v>0.1758596750433767</v>
+        <v>0.1716465928625368</v>
       </c>
       <c r="F8">
-        <v>0.758239689378243</v>
+        <v>0.6645107027371466</v>
       </c>
       <c r="G8">
-        <v>0.6781338830570007</v>
+        <v>0.5725947442574011</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.005541812178395666</v>
+        <v>0.005244287017521998</v>
       </c>
       <c r="J8">
-        <v>0.4387028184201256</v>
+        <v>0.4167346918039811</v>
       </c>
       <c r="K8">
-        <v>0.3294392301450983</v>
+        <v>0.26932947447931</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1601698979853339</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05911527518098936</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9510448163438312</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.961499472250182</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.073691406633884</v>
+        <v>3.049856006313178</v>
       </c>
       <c r="C9">
-        <v>1.078398807098665</v>
+        <v>1.178754366651958</v>
       </c>
       <c r="D9">
-        <v>0.02885179242878166</v>
+        <v>0.03795484032959706</v>
       </c>
       <c r="E9">
-        <v>0.237843402386666</v>
+        <v>0.231436630513663</v>
       </c>
       <c r="F9">
-        <v>0.9542292246256494</v>
+        <v>0.8146821785517488</v>
       </c>
       <c r="G9">
-        <v>0.8605978721684693</v>
+        <v>0.7128824836108123</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0148263833195017</v>
+        <v>0.01260484345369584</v>
       </c>
       <c r="J9">
-        <v>0.5075106774809512</v>
+        <v>0.4611659814941191</v>
       </c>
       <c r="K9">
-        <v>0.3576066380373675</v>
+        <v>0.2736888497617898</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1488897722828924</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07640720672893053</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.289811021212358</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.303367824501308</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.650525581478121</v>
+        <v>3.614370317402745</v>
       </c>
       <c r="C10">
-        <v>1.281990706381748</v>
+        <v>1.405155390595212</v>
       </c>
       <c r="D10">
-        <v>0.03152061884280855</v>
+        <v>0.04411554172916254</v>
       </c>
       <c r="E10">
-        <v>0.2868787780747084</v>
+        <v>0.2790727257655163</v>
       </c>
       <c r="F10">
-        <v>1.104491098135469</v>
+        <v>0.916710605679441</v>
       </c>
       <c r="G10">
-        <v>1.000566841940824</v>
+        <v>0.8388448913618731</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.02453143589326867</v>
+        <v>0.02011834602627793</v>
       </c>
       <c r="J10">
-        <v>0.561408313578184</v>
+        <v>0.456978712342206</v>
       </c>
       <c r="K10">
-        <v>0.3804160062519557</v>
+        <v>0.2729352904703894</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1385542991289697</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.09084405178250421</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.545388610030088</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.559306367839568</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.913605868278466</v>
+        <v>3.871382863560541</v>
       </c>
       <c r="C11">
-        <v>1.381907638956477</v>
+        <v>1.504572084577319</v>
       </c>
       <c r="D11">
-        <v>0.03310067129898187</v>
+        <v>0.04896968044318584</v>
       </c>
       <c r="E11">
-        <v>0.3098968810745362</v>
+        <v>0.3019243903169837</v>
       </c>
       <c r="F11">
-        <v>1.168336552704019</v>
+        <v>0.9375093379155146</v>
       </c>
       <c r="G11">
-        <v>1.058972299163756</v>
+        <v>0.9236543561411423</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.02995525329017124</v>
+        <v>0.02429032098760509</v>
       </c>
       <c r="J11">
-        <v>0.5833049371005359</v>
+        <v>0.3925856858913619</v>
       </c>
       <c r="K11">
-        <v>0.3872420536791097</v>
+        <v>0.2611152800900918</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1298633667757301</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.09329764734214763</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.664439412499647</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.676231114867534</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.013898560423627</v>
+        <v>3.969245050147208</v>
       </c>
       <c r="C12">
-        <v>1.417041628326331</v>
+        <v>1.538184838753807</v>
       </c>
       <c r="D12">
-        <v>0.03352425140538884</v>
+        <v>0.05083951373180895</v>
       </c>
       <c r="E12">
-        <v>0.3189440682279638</v>
+        <v>0.3109484875911406</v>
       </c>
       <c r="F12">
-        <v>1.196519023323859</v>
+        <v>0.9459255286732002</v>
       </c>
       <c r="G12">
-        <v>1.085491826489942</v>
+        <v>0.9639300664735941</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.03199348415650594</v>
+        <v>0.02574858254700185</v>
       </c>
       <c r="J12">
-        <v>0.593835487428521</v>
+        <v>0.3644823144773852</v>
       </c>
       <c r="K12">
-        <v>0.3923692114803146</v>
+        <v>0.257434473731518</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1269051560236854</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.09458201411771583</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.70937630082841</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.72009195210434</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.992369853288494</v>
+        <v>3.948233536910209</v>
       </c>
       <c r="C13">
-        <v>1.408859300798781</v>
+        <v>1.530410107823513</v>
       </c>
       <c r="D13">
-        <v>0.03339642937638843</v>
+        <v>0.05038112345358314</v>
       </c>
       <c r="E13">
-        <v>0.3170204407044466</v>
+        <v>0.3090236935556661</v>
       </c>
       <c r="F13">
-        <v>1.19116170732147</v>
+        <v>0.9448133249948256</v>
       </c>
       <c r="G13">
-        <v>1.080572265230387</v>
+        <v>0.9557204289335317</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03151901905884014</v>
+        <v>0.02539038791913484</v>
       </c>
       <c r="J13">
-        <v>0.5919689754983892</v>
+        <v>0.3709997347475138</v>
       </c>
       <c r="K13">
-        <v>0.3917376229690817</v>
+        <v>0.2586066938437703</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1276689520033401</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09446223607897508</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.699589498198421</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.710557982324019</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.921886853120327</v>
+        <v>3.879461397623686</v>
       </c>
       <c r="C14">
-        <v>1.384536514417505</v>
+        <v>1.507110942259885</v>
       </c>
       <c r="D14">
-        <v>0.03311998414410056</v>
+        <v>0.04909984266769385</v>
       </c>
       <c r="E14">
-        <v>0.3106515793410765</v>
+        <v>0.3026745224865053</v>
       </c>
       <c r="F14">
-        <v>1.170957103718251</v>
+        <v>0.9385031576090341</v>
       </c>
       <c r="G14">
-        <v>1.061489815709862</v>
+        <v>0.9271585679772585</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.03010736460292751</v>
+        <v>0.0243910840384105</v>
       </c>
       <c r="J14">
-        <v>0.5843415251221131</v>
+        <v>0.3904847132046001</v>
       </c>
       <c r="K14">
-        <v>0.3878643656870793</v>
+        <v>0.2609761290982249</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1296750975879419</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.09347040175702759</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.668089822044521</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.679802276787299</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.878586109134062</v>
+        <v>3.83721666619067</v>
       </c>
       <c r="C15">
-        <v>1.370860835143503</v>
+        <v>1.493848241554133</v>
       </c>
       <c r="D15">
-        <v>0.03302281626929471</v>
+        <v>0.04843302818620288</v>
       </c>
       <c r="E15">
-        <v>0.3067087379035272</v>
+        <v>0.2987582488451466</v>
       </c>
       <c r="F15">
-        <v>1.157197402866757</v>
+        <v>0.9331446428267895</v>
       </c>
       <c r="G15">
-        <v>1.048261275555433</v>
+        <v>0.9089700548798447</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.02932261102020739</v>
+        <v>0.02387408369507948</v>
       </c>
       <c r="J15">
-        <v>0.5788885785059676</v>
+        <v>0.4012316989047804</v>
       </c>
       <c r="K15">
-        <v>0.3845694684764922</v>
+        <v>0.2616282539943455</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1306343241351478</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.09253866376385034</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.649023517840064</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.661137137249</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.632001205651022</v>
+        <v>3.596385839320249</v>
       </c>
       <c r="C16">
-        <v>1.285445171282333</v>
+        <v>1.408241400964982</v>
       </c>
       <c r="D16">
-        <v>0.03201540693373772</v>
+        <v>0.04452443240982262</v>
       </c>
       <c r="E16">
-        <v>0.2848549198020649</v>
+        <v>0.2771252301255345</v>
       </c>
       <c r="F16">
-        <v>1.088279773499536</v>
+        <v>0.9050169813471882</v>
       </c>
       <c r="G16">
-        <v>0.9833895665736918</v>
+        <v>0.822763725057527</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.02468235791793738</v>
+        <v>0.02051810037967172</v>
       </c>
       <c r="J16">
-        <v>0.553194819628601</v>
+        <v>0.4550734729318577</v>
       </c>
       <c r="K16">
-        <v>0.3720225247706708</v>
+        <v>0.2677233879563943</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1370010982276249</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0882874451477953</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.539209036408053</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1.553108411232273</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.481145969346983</v>
+        <v>3.4489076878221</v>
       </c>
       <c r="C17">
-        <v>1.233449922478883</v>
+        <v>1.353769528712007</v>
       </c>
       <c r="D17">
-        <v>0.03140128012656263</v>
+        <v>0.0425022862885811</v>
       </c>
       <c r="E17">
-        <v>0.2717263916715282</v>
+        <v>0.2642276559129897</v>
       </c>
       <c r="F17">
-        <v>1.046687331081912</v>
+        <v>0.8835522434868182</v>
       </c>
       <c r="G17">
-        <v>0.9442847548777991</v>
+        <v>0.7776836283926372</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.02204647896714729</v>
+        <v>0.01857925139269057</v>
       </c>
       <c r="J17">
-        <v>0.5377925877328664</v>
+        <v>0.4765520869791402</v>
       </c>
       <c r="K17">
-        <v>0.3646167126577922</v>
+        <v>0.2697690202749179</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1403443984452082</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08511172768528752</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.472356137734408</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1.486842049121051</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.394922507331785</v>
+        <v>3.364528008213654</v>
       </c>
       <c r="C18">
-        <v>1.200670822520692</v>
+        <v>1.318799949794652</v>
       </c>
       <c r="D18">
-        <v>0.03086805242811863</v>
+        <v>0.04125904354433629</v>
       </c>
       <c r="E18">
-        <v>0.2644342084160556</v>
+        <v>0.257084121738707</v>
       </c>
       <c r="F18">
-        <v>1.026644603762335</v>
+        <v>0.8727578101804454</v>
       </c>
       <c r="G18">
-        <v>0.9260697765548684</v>
+        <v>0.7577222957234397</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.02041389655040948</v>
+        <v>0.01725746329340705</v>
       </c>
       <c r="J18">
-        <v>0.5311117306016371</v>
+        <v>0.4859501586852133</v>
       </c>
       <c r="K18">
-        <v>0.3628553782599937</v>
+        <v>0.2721275776908136</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1427081775429677</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.08379353943323409</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.433605602096719</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1.448288716614911</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.36543631766375</v>
+        <v>3.335691713508766</v>
       </c>
       <c r="C19">
-        <v>1.19191638898792</v>
+        <v>1.309120861842928</v>
       </c>
       <c r="D19">
-        <v>0.03082750854463967</v>
+        <v>0.0410173196085708</v>
       </c>
       <c r="E19">
-        <v>0.2618545562141392</v>
+        <v>0.2545737015378009</v>
       </c>
       <c r="F19">
-        <v>1.017086128195075</v>
+        <v>0.8665009225374831</v>
       </c>
       <c r="G19">
-        <v>0.9168248625337867</v>
+        <v>0.7488272258977133</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02001596130381866</v>
+        <v>0.01700476827699582</v>
       </c>
       <c r="J19">
-        <v>0.5272861326513123</v>
+        <v>0.4870098691336437</v>
       </c>
       <c r="K19">
-        <v>0.3604255220328199</v>
+        <v>0.2714358161753303</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1429628461126846</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.08277477230136654</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.420878736741685</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.435572383859224</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.497222322744108</v>
+        <v>3.464626627478481</v>
       </c>
       <c r="C20">
-        <v>1.238733785696809</v>
+        <v>1.35940823834045</v>
       </c>
       <c r="D20">
-        <v>0.03145222825015992</v>
+        <v>0.04268797464532526</v>
       </c>
       <c r="E20">
-        <v>0.2731268000070912</v>
+        <v>0.2655986360106226</v>
       </c>
       <c r="F20">
-        <v>1.051376170115077</v>
+        <v>0.8862318049544484</v>
       </c>
       <c r="G20">
-        <v>0.9487396542602653</v>
+        <v>0.7824666286586819</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.02230435921914342</v>
+        <v>0.01876144190597451</v>
       </c>
       <c r="J20">
-        <v>0.5395802338823756</v>
+        <v>0.4748709931261601</v>
       </c>
       <c r="K20">
-        <v>0.3655824937723082</v>
+        <v>0.2697551481956673</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1400615739797715</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.08552527819896838</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.47941724562645</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.493861926563042</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.942114697549925</v>
+        <v>3.899268085225515</v>
       </c>
       <c r="C21">
-        <v>1.395054553530429</v>
+        <v>1.5134569336808</v>
       </c>
       <c r="D21">
-        <v>0.03340566925277955</v>
+        <v>0.05028991830295837</v>
       </c>
       <c r="E21">
-        <v>0.3123340972741673</v>
+        <v>0.3045315060239346</v>
       </c>
       <c r="F21">
-        <v>1.172790641488433</v>
+        <v>0.9295336983898181</v>
       </c>
       <c r="G21">
-        <v>1.062548326118744</v>
+        <v>0.9428909467222297</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.03069900670758141</v>
+        <v>0.02487776673647257</v>
       </c>
       <c r="J21">
-        <v>0.5842757996934722</v>
+        <v>0.3635723557598283</v>
       </c>
       <c r="K21">
-        <v>0.3863121566349648</v>
+        <v>0.2553204902319877</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1273883709354138</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.09169698034352436</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.67785916097823</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.688634613854632</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.235042446518435</v>
+        <v>4.184886688441225</v>
       </c>
       <c r="C22">
-        <v>1.494395958637483</v>
+        <v>1.609591255281089</v>
       </c>
       <c r="D22">
-        <v>0.03443619409682697</v>
+        <v>0.05540286699084618</v>
       </c>
       <c r="E22">
-        <v>0.3391932731703022</v>
+        <v>0.3312532360118823</v>
       </c>
       <c r="F22">
-        <v>1.259783707381331</v>
+        <v>0.9603793499040592</v>
       </c>
       <c r="G22">
-        <v>1.145162421641999</v>
+        <v>1.06259249670623</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.03669537741010398</v>
+        <v>0.02906281380038234</v>
       </c>
       <c r="J22">
-        <v>0.6176823669347584</v>
+        <v>0.2964059994551889</v>
       </c>
       <c r="K22">
-        <v>0.4042984873322979</v>
+        <v>0.2479037726678435</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1200215525924122</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.09685595762973875</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.808760615583807</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.816533824019132</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.079105731043626</v>
+        <v>4.03281438673497</v>
       </c>
       <c r="C23">
-        <v>1.437151748999668</v>
+        <v>1.556990159721352</v>
       </c>
       <c r="D23">
-        <v>0.03363844737712895</v>
+        <v>0.05192161680520258</v>
       </c>
       <c r="E23">
-        <v>0.3249796007220525</v>
+        <v>0.3169701726312155</v>
       </c>
       <c r="F23">
-        <v>1.218050280172719</v>
+        <v>0.9532571904339306</v>
       </c>
       <c r="G23">
-        <v>1.106301871998085</v>
+        <v>0.9944444836419706</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.03322373140597357</v>
+        <v>0.02654047144775795</v>
       </c>
       <c r="J23">
-        <v>0.6025045233236597</v>
+        <v>0.3463357355565364</v>
       </c>
       <c r="K23">
-        <v>0.3978422507774582</v>
+        <v>0.2562678903762858</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1254163320669264</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.09593109603664018</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.738074192688572</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.748037633777301</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.490820971548658</v>
+        <v>3.458290649399089</v>
       </c>
       <c r="C24">
-        <v>1.229974646837775</v>
+        <v>1.350618526743688</v>
       </c>
       <c r="D24">
-        <v>0.03104619372225415</v>
+        <v>0.04216554674408712</v>
       </c>
       <c r="E24">
-        <v>0.2728403003458197</v>
+        <v>0.265288482812025</v>
       </c>
       <c r="F24">
-        <v>1.056983279774386</v>
+        <v>0.8914654683777741</v>
       </c>
       <c r="G24">
-        <v>0.9552943384210124</v>
+        <v>0.7873795289667385</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.02182934792528624</v>
+        <v>0.01820260721311318</v>
       </c>
       <c r="J24">
-        <v>0.5431256576557928</v>
+        <v>0.4791650495641022</v>
       </c>
       <c r="K24">
-        <v>0.3702353018426194</v>
+        <v>0.2735538654576004</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1415639273551861</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08683324366209533</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.475224353559312</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.489762886828359</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.861350203380766</v>
+        <v>2.841705986991997</v>
       </c>
       <c r="C25">
-        <v>1.011396382564897</v>
+        <v>1.102571309727381</v>
       </c>
       <c r="D25">
-        <v>0.02828760939488006</v>
+        <v>0.03629149487036187</v>
       </c>
       <c r="E25">
-        <v>0.2201829615024309</v>
+        <v>0.2143500430634973</v>
       </c>
       <c r="F25">
-        <v>0.8924192192486089</v>
+        <v>0.7698720795209795</v>
       </c>
       <c r="G25">
-        <v>0.8016541505861454</v>
+        <v>0.6627183339155067</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01217181426122771</v>
+        <v>0.01069538290798366</v>
       </c>
       <c r="J25">
-        <v>0.4839479765186354</v>
+        <v>0.4547314949390824</v>
       </c>
       <c r="K25">
-        <v>0.3444622602699567</v>
+        <v>0.2696664262101294</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1509409726197362</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.07011597077166343</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.198171548659019</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.211190141012679</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
